--- a/Challenge Task 1- Software Defect Prediction/result.xlsx
+++ b/Challenge Task 1- Software Defect Prediction/result.xlsx
@@ -145,6 +145,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -165,6 +166,7 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -245,32 +247,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,6 +350,87 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>516600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5202000"/>
+          <a:ext cx="6091200" cy="3706200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425520</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6387480" y="5202000"/>
+          <a:ext cx="6114960" cy="3720600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,894 +544,900 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P32" activeCellId="0" sqref="P32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H78" activeCellId="0" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.72</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>0.56</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.73</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.51</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>0.73</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.37</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>0.69</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>0.48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>0.98</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.92</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3" t="s">
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>0.77</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>0.73</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.68</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3" t="s">
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>0.63</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.43</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>0.52</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>0.6</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="6" t="n">
         <v>0.55</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>0.43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.87</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0.91</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3" t="s">
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <v>0.91</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>0.83</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3" t="s">
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="6" t="n">
         <v>0.87</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="6" t="n">
         <v>0.86</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.28</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>0.85</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3" t="s">
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <v>0.84</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.91</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.57</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>0.91</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>0.47</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <v>0.87</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="1" t="n">
         <v>0.47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.79</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.55</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>0.78</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="1" t="n">
         <v>0.54</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="M13" s="6" t="n">
         <v>0.81</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="1" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="1" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <v>0.75</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="7" t="n">
         <v>0.65</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="1" t="n">
         <v>0.48</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="1" t="n">
         <v>0.65</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>0.74</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="7" t="n">
         <v>0.61</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="6" t="n">
         <v>0.76</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="1" t="n">
         <v>0.57</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="L21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="1" t="n">
         <v>0.69</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21" s="1" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>0.95</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="7" t="n">
         <v>0.69</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>0.95</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="1" t="n">
         <v>0.875</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>0.69</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>0.46</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>0.64</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="7" t="n">
         <v>0.47</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="0" t="n">
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
         <v>0.55</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>0.43</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="3" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="1" t="n">
         <v>0.43</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="1" t="n">
         <v>0.43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>0.83</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="7" t="n">
         <v>0.65</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>0.87</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="3" t="s">
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="5" t="n">
+      <c r="M25" s="6" t="n">
         <v>0.93</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>0.83</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>0.54</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <v>0.54</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="3" t="s">
+      <c r="J26" s="3"/>
+      <c r="K26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="L26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="N26" s="6" t="n">
+      <c r="N26" s="7" t="n">
         <v>0.55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>0.84</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>0.71</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>0.85</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="7" t="n">
         <v>0.72</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="1" t="n">
         <v>0.82</v>
       </c>
-      <c r="N27" s="6" t="n">
+      <c r="N27" s="7" t="n">
         <v>0.72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="6" t="n">
         <v>0.94</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="7" t="n">
         <v>0.89</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>0.92</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="1" t="n">
         <v>0.72</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="L28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="1" t="n">
         <v>0.88</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28" s="1" t="n">
         <v>0.62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="6" t="n">
         <v>0.81</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>0.66</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>0.78</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="1" t="n">
         <v>0.67</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3"/>
+      <c r="K29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="5" t="n">
+      <c r="M29" s="6" t="n">
         <v>0.81</v>
       </c>
-      <c r="N29" s="6" t="n">
+      <c r="N29" s="7" t="n">
         <v>0.71</v>
       </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1362,5 +1455,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>